--- a/data-raw/reversible-metabolism.xlsx
+++ b/data-raw/reversible-metabolism.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="25875" windowHeight="13005"/>
+    <workbookView xWindow="525" yWindow="8145" windowWidth="25875" windowHeight="24495"/>
   </bookViews>
   <sheets>
     <sheet name="PK34" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
@@ -36,12 +36,16 @@
   <si>
     <t>Cm</t>
   </si>
+  <si>
+    <t>Cp_mock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +203,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -628,8 +641,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,570 +990,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(E3+1) * 0.95</f>
+        <v>3.7031000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2.8980000000000001</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="0">(E4+1) * 0.95</f>
+        <v>4.5560099999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3.7957999999999998</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.081645</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>4.3491</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7790399999999993</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5.0831999999999997</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8049749999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5.1105</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0105200000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>3.2216</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9577299999999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2.1133999999999999</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8524049999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>0.94989999999999997</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.380255</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>0.45290000000000002</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1396199999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>0.1996</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
+        <f>E13*1.05</f>
+        <v>0.36036000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>0.34320000000000001</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C19" si="1">E14*1.05</f>
+        <v>0.50263500000000005</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>0.47870000000000001</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59377500000000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>0.5655</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72177000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>0.68740000000000001</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66685499999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>0.6351</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51796500000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>0.49330000000000002</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>95</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33915000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
+        <f>E20+0.012</f>
+        <v>0.20670000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>0.19470000000000001</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>150</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:C31" si="2">E21+0.012</f>
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17980000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>0.1678</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4627</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>0.45069999999999999</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>0.59050000000000002</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82400000000000007</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>0.81200000000000006</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96820000000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>0.95620000000000005</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>0.88090000000000002</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88350000000000006</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>0.87150000000000005</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>0.33710000000000001</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>150</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>0.1646</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>180</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1085</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <f>E32*0.98</f>
+        <v>3.3232779999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>3.3910999999999998</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:C40" si="3">E33*0.98</f>
+        <v>2.7536040000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>2.8098000000000001</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3335760000000003</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>2.3812000000000002</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0904380000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>2.1331000000000002</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8334820000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36">
         <v>1.8709</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.099952</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37">
         <v>1.1224000000000001</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83927200000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>0.85640000000000005</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20766200000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39">
         <v>0.21190000000000001</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>180</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9686000000000001E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>